--- a/Documentos/Metas_projeto.xlsx
+++ b/Documentos/Metas_projeto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Semanas</t>
+  </si>
+  <si>
+    <t>Teste por terceiros pelo menos umas 10 pessoas</t>
   </si>
 </sst>
 </file>
@@ -609,15 +612,15 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -637,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -649,6 +652,17 @@
       </c>
       <c r="D2" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUM(B2:B80)</f>
+        <v>765</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(C2:C80)</f>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -662,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -674,6 +688,14 @@
       </c>
       <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10">
+        <f>(G2/F2)*100%</f>
+        <v>0.72026143790849673</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -702,6 +724,16 @@
       </c>
       <c r="D6" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <f>(G2*20)/60</f>
+        <v>183.66666666666666</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -718,7 +750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -731,8 +763,14 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -741,6 +779,12 @@
       </c>
       <c r="C9">
         <v>20</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -753,16 +797,11 @@
       <c r="C10">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <f>SUM(B2:B80)</f>
-        <v>765</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM(C2:C80)</f>
-        <v>551</v>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,76 +814,34 @@
       <c r="C11">
         <v>200</v>
       </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10">
-        <f>(G10/F10)*100%</f>
-        <v>0.72026143790849673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9">
-        <f>(G10*20)/60</f>
-        <v>183.66666666666666</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="17">
-        <f>(F14/(F16*F17*F18))</f>
+      <c r="F12" s="17">
+        <f>(F6/(F8*F9*F10))</f>
         <v>9.1833333333333336</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E21" s="6"/>
-      <c r="F21" s="18">
-        <f>(F20*F17)</f>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E13" s="6"/>
+      <c r="F13" s="18">
+        <f>(F12*F9)</f>
         <v>45.916666666666671</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G13" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>7</v>
       </c>
